--- a/backup.xlsx
+++ b/backup.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A3:XFD18"/>
@@ -463,43 +463,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Звонкая Зинаида</t>
+          <t>Иванов Иван</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2000-12-12</t>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1998-12-31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Петя Сидоров</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Иванов Иван Иванович</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1968-04-15</t>
         </is>
       </c>
     </row>
@@ -509,39 +509,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Петров Петр Петрович</t>
+          <t>Пушкарева Таисия</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1940-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Сидоров Сидор Сидорович</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2000-10-09</t>
+          <t>1995-03-25</t>
         </is>
       </c>
     </row>
